--- a/uc_spe/themTrangThai.xlsx
+++ b/uc_spe/themTrangThai.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E8B50-C3E2-45C4-BE7F-E1DE52F10834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9621EECB-A115-4504-8969-2C0F59FF2635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC scenario-Searching" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'UC scenario-Searching'!$A$1:$AS$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'UC scenario-Searching'!$A$1:$AS$57</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Risk</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Người dùng đã đăng nhập thành công vào hệ thống</t>
   </si>
   <si>
-    <t>Người dùng chọn chức năng "Thêm trạng thái" trên màn hình</t>
-  </si>
-  <si>
     <t>Người dùng nhập văn bản, thêm hình ảnh hoặc thêm video</t>
   </si>
   <si>
@@ -125,18 +122,12 @@
     <t>Người dùng nhập văn bản vào ô Text</t>
   </si>
   <si>
-    <t>Người dùng chọn thêm ảnh: ấn vào dòng thêm ảnh</t>
-  </si>
-  <si>
     <t>Hộp thoại thêm ảnh hiển thị. Người dùng chọn địa chỉ lưu ảnh và chọn ảnh</t>
   </si>
   <si>
     <t>Chỉ có các file có định dạng ảnh mới được hiển thị: jpg, gif, png.</t>
   </si>
   <si>
-    <t>Người dùng chọn thêm video: ấn vào dòng thêm video</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -155,40 +146,46 @@
     <t>Người dùng chọn button "Đăng" để thêm trạng thái</t>
   </si>
   <si>
-    <t>Hệ thống sẽ lấy mã người dùng, văn bản, danh sách các ảnh, danh sách các video từ hộp thoại</t>
-  </si>
-  <si>
-    <t>Và các file video up lên giới hạn 100MB</t>
-  </si>
-  <si>
-    <t>Hệ thống sẽ chuyển dữ liệu lấy được qua lớp Xử lý dữ liệu và kiểm tra các giá trị của các file được chọn</t>
-  </si>
-  <si>
-    <t>Hệ thống sẽ tạo một đối tượng BaiViet để lưu trữ các dữ liệu đã qua kiểm tra</t>
-  </si>
-  <si>
-    <t>Hệ thống chuyển dữ liệu đến đối rượng CoSoDuLieu để tiến hành tải dữ liệu lên và lưu trữ trên sơ sở dữ liệu</t>
-  </si>
-  <si>
-    <t>Hệ thống kiểm tra dữ liệu đã được thêm vào có thành công hay không</t>
-  </si>
-  <si>
-    <t>Nếu dữ liệu được thêm vào thành công thì hệ thống sẽ trả về maBaiViet</t>
-  </si>
-  <si>
-    <t>Nếu dữ liệu được thêm vào không thành công thì hệ thống sẽ trả về null</t>
-  </si>
-  <si>
-    <t>Hệ thống kiểm tra dữ liệu được trả về</t>
-  </si>
-  <si>
-    <t>Nếu dữ liệu là null thì hệ thống sẽ hiện thị thông báo đăng bài viết không thành công</t>
-  </si>
-  <si>
-    <t>Nếu dữ liệu khác null thì hệ thống sẽ hiện thị thông báo đăng bài viết thành công</t>
-  </si>
-  <si>
-    <t>Giới hạn file &lt;= 50MB</t>
+    <t>Người dùng click chuột vào khung "đăng bài viết" trên màn hình</t>
+  </si>
+  <si>
+    <t>Thêm ảnh: Người dùng click vào icon thêm ảnh</t>
+  </si>
+  <si>
+    <t>Thêm video:Người dùng click vào icon thêm video</t>
+  </si>
+  <si>
+    <t>Hệ thống nhận dữ liệu của văn bản, danh sách các ảnh, danh sách các video từ hộp thoại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống sẽ chuyển dữ liệu lấy được qua Controller </t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ tạo một đối tượng Post() để lưu trữ các dữ liệu đã qua kiểm tra</t>
+  </si>
+  <si>
+    <t>Hệ thống lấy từng dữ liệu nhận được ra kiểm tra</t>
+  </si>
+  <si>
+    <t>Văn bản sẽ được thêm vào đối tượng Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách ảnh sẽ được duyệt lần lượt từng ảnh, những ảnh có kích thước dưới 50MB sẽ được thêm vào danh sách ảnh của đối tượng Post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách video sẽ được duyệt lần lượt từng video, những video có kích thước dưới 50MB sẽ được thêm vào danh sách video của đối tượng Post </t>
+  </si>
+  <si>
+    <t>Hệ thống lấy thông tin của đối tượng User thêm vào đối tượng Post</t>
+  </si>
+  <si>
+    <t>Hệ thống gọi phương thức insert(post) của đối tượng PostsData để thêm bài viết vào CSDL</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ chuyển về trang NEWSFEED của tài khoản để hiển thị các bài viết của người dùng</t>
+  </si>
+  <si>
+    <t>Bài viết vừa đăng sẽ được hiển thị ở trên đầu danh sách bài viết</t>
   </si>
 </sst>
 </file>
@@ -249,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -402,24 +399,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -451,14 +435,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,15 +504,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -505,28 +513,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -870,221 +857,221 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR58"/>
+  <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="43" max="43" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="39" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="39" t="s">
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="39" t="s">
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="39" t="s">
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="41"/>
-    </row>
-    <row r="2" spans="1:44" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="45" t="s">
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="34"/>
+    </row>
+    <row r="2" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="45" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="47"/>
-    </row>
-    <row r="3" spans="1:44" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="50"/>
-    </row>
-    <row r="5" spans="1:44" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="37"/>
+    </row>
+    <row r="3" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="40"/>
+    </row>
+    <row r="5" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="44"/>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="52"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1123,7 @@
       <c r="AP8" s="18"/>
       <c r="AQ8" s="17"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1171,7 @@
       <c r="AP9" s="18"/>
       <c r="AQ9" s="17"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1219,7 @@
       <c r="AP10" s="8"/>
       <c r="AQ10" s="7"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1276,7 +1263,7 @@
       <c r="AP11" s="5"/>
       <c r="AQ11" s="4"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1320,7 +1307,7 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1355,7 @@
       <c r="AP13" s="18"/>
       <c r="AQ13" s="17"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1407,7 @@
       <c r="AP14" s="18"/>
       <c r="AQ14" s="17"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1455,7 @@
       <c r="AP15" s="8"/>
       <c r="AQ15" s="7"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1512,7 +1499,7 @@
       <c r="AP16" s="2"/>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
@@ -1558,13 +1545,13 @@
       <c r="AP17" s="18"/>
       <c r="AQ17" s="17"/>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B18" s="29">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B18" s="28">
         <v>1</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="19" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -1606,13 +1593,13 @@
       <c r="AP18" s="18"/>
       <c r="AQ18" s="17"/>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B19" s="27">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B19" s="30">
         <v>2</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -1654,13 +1641,13 @@
       <c r="AP19" s="18"/>
       <c r="AQ19" s="17"/>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B20" s="29">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B20" s="28">
         <v>3</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -1702,14 +1689,14 @@
       <c r="AP20" s="18"/>
       <c r="AQ20" s="17"/>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1750,14 +1737,14 @@
       <c r="AP21" s="18"/>
       <c r="AQ21" s="17"/>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -1798,12 +1785,12 @@
       <c r="AP22" s="18"/>
       <c r="AQ22" s="17"/>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
+    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="19"/>
       <c r="E23" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1844,13 +1831,13 @@
       <c r="AP23" s="18"/>
       <c r="AQ23" s="17"/>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="19"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -1890,14 +1877,16 @@
       <c r="AP24" s="18"/>
       <c r="AQ24" s="17"/>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="D25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -1936,14 +1925,12 @@
       <c r="AP25" s="18"/>
       <c r="AQ25" s="17"/>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="19" t="s">
-        <v>41</v>
-      </c>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1984,14 +1971,14 @@
       <c r="AP26" s="18"/>
       <c r="AQ26" s="17"/>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
+    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -2030,14 +2017,16 @@
       <c r="AP27" s="18"/>
       <c r="AQ27" s="17"/>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
+    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B28" s="28">
+        <v>4</v>
+      </c>
       <c r="C28" s="28"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="E28" s="18"/>
-      <c r="F28" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -2076,14 +2065,15 @@
       <c r="AP28" s="18"/>
       <c r="AQ28" s="17"/>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
+    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B29" s="28">
+        <v>5</v>
+      </c>
       <c r="C29" s="28"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18" t="s">
-        <v>46</v>
-      </c>
+      <c r="D29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -2122,13 +2112,13 @@
       <c r="AP29" s="18"/>
       <c r="AQ29" s="17"/>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B30" s="29">
-        <v>4</v>
-      </c>
-      <c r="C30" s="29"/>
+    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B30" s="28">
+        <v>6</v>
+      </c>
+      <c r="C30" s="28"/>
       <c r="D30" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -2170,14 +2160,15 @@
       <c r="AP30" s="18"/>
       <c r="AQ30" s="17"/>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B31" s="29">
-        <v>5</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="18" t="s">
-        <v>45</v>
-      </c>
+    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B31" s="28">
+        <v>7</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -2217,13 +2208,13 @@
       <c r="AP31" s="18"/>
       <c r="AQ31" s="17"/>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B32" s="29">
-        <v>6</v>
-      </c>
-      <c r="C32" s="29"/>
+    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B32" s="30">
+        <v>8</v>
+      </c>
+      <c r="C32" s="31"/>
       <c r="D32" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -2265,15 +2256,13 @@
       <c r="AP32" s="18"/>
       <c r="AQ32" s="17"/>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B33" s="29">
-        <v>7</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="18"/>
+    <row r="33" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -2313,15 +2302,13 @@
       <c r="AP33" s="18"/>
       <c r="AQ33" s="17"/>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B34" s="52">
-        <v>8</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="18"/>
+    <row r="34" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B34" s="53"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -2361,105 +2348,109 @@
       <c r="AP34" s="18"/>
       <c r="AQ34" s="17"/>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
+    <row r="35" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B35" s="53"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
       <c r="W35" s="18"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="7"/>
-    </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="17"/>
+    </row>
+    <row r="36" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B36" s="29">
+        <v>9</v>
+      </c>
       <c r="C36" s="28"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
+      <c r="D36" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
       <c r="W36" s="18"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="7"/>
-    </row>
-    <row r="37" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="17"/>
+    </row>
+    <row r="37" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B37" s="30">
+        <v>10</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2499,13 +2490,13 @@
       <c r="AP37" s="8"/>
       <c r="AQ37" s="7"/>
     </row>
-    <row r="38" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B38" s="27">
-        <v>9</v>
-      </c>
-      <c r="C38" s="28"/>
+    <row r="38" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B38" s="30">
+        <v>11</v>
+      </c>
+      <c r="C38" s="31"/>
       <c r="D38" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2547,7 +2538,7 @@
       <c r="AP38" s="8"/>
       <c r="AQ38" s="7"/>
     </row>
-    <row r="39" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B39" s="26"/>
       <c r="C39" s="24"/>
       <c r="D39" s="19"/>
@@ -2593,459 +2584,457 @@
       <c r="AP39" s="8"/>
       <c r="AQ39" s="7"/>
     </row>
-    <row r="40" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
-      <c r="AP40" s="8"/>
-      <c r="AQ40" s="7"/>
-    </row>
-    <row r="41" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
+    <row r="40" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="14"/>
-      <c r="AN41" s="14"/>
-      <c r="AO41" s="14"/>
-      <c r="AP41" s="14"/>
-      <c r="AQ41" s="13"/>
-    </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="11"/>
-      <c r="AD42" s="11"/>
-      <c r="AE42" s="11"/>
-      <c r="AF42" s="11"/>
-      <c r="AG42" s="11"/>
-      <c r="AH42" s="11"/>
-      <c r="AI42" s="11"/>
-      <c r="AJ42" s="11"/>
-      <c r="AK42" s="11"/>
-      <c r="AL42" s="11"/>
-      <c r="AM42" s="11"/>
-      <c r="AN42" s="11"/>
-      <c r="AO42" s="11"/>
-      <c r="AP42" s="11"/>
-      <c r="AQ42" s="10"/>
-    </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="13"/>
+    </row>
+    <row r="41" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="10"/>
+    </row>
+    <row r="42" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="8"/>
-      <c r="AN43" s="8"/>
-      <c r="AO43" s="8"/>
-      <c r="AP43" s="8"/>
-      <c r="AQ43" s="7"/>
-    </row>
-    <row r="44" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="4"/>
-    </row>
-    <row r="45" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45" s="2"/>
-      <c r="AN45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="2"/>
-      <c r="AQ45" s="1"/>
-    </row>
-    <row r="46" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="7"/>
+    </row>
+    <row r="43" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="4"/>
+    </row>
+    <row r="44" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="1"/>
+    </row>
+    <row r="45" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="8"/>
-      <c r="AH46" s="8"/>
-      <c r="AI46" s="8"/>
-      <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="8"/>
-      <c r="AM46" s="8"/>
-      <c r="AN46" s="8"/>
-      <c r="AO46" s="8"/>
-      <c r="AP46" s="8"/>
-      <c r="AQ46" s="7"/>
-    </row>
-    <row r="47" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="4"/>
-    </row>
-    <row r="48" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="2"/>
-      <c r="AQ48" s="1"/>
-    </row>
-    <row r="49" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B49" s="9" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="7"/>
+    </row>
+    <row r="46" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="4"/>
+    </row>
+    <row r="47" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="1"/>
+    </row>
+    <row r="48" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="8"/>
-      <c r="AM49" s="8"/>
-      <c r="AN49" s="8"/>
-      <c r="AO49" s="8"/>
-      <c r="AP49" s="8"/>
-      <c r="AQ49" s="7"/>
-    </row>
-    <row r="50" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="8"/>
+      <c r="AO48" s="8"/>
+      <c r="AP48" s="8"/>
+      <c r="AQ48" s="7"/>
+    </row>
+    <row r="49" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="4"/>
+    </row>
+    <row r="50" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3089,377 +3078,326 @@
       <c r="AP50" s="5"/>
       <c r="AQ50" s="4"/>
     </row>
-    <row r="51" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
-      <c r="AQ51" s="4"/>
-    </row>
-    <row r="52" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
-      <c r="AK52" s="2"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52" s="2"/>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AP52" s="2"/>
-      <c r="AQ52" s="1"/>
-    </row>
-    <row r="53" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B53" s="9" t="s">
+    <row r="51" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="1"/>
+    </row>
+    <row r="52" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8"/>
-      <c r="AJ53" s="8"/>
-      <c r="AK53" s="8"/>
-      <c r="AL53" s="8"/>
-      <c r="AM53" s="8"/>
-      <c r="AN53" s="8"/>
-      <c r="AO53" s="8"/>
-      <c r="AP53" s="8"/>
-      <c r="AQ53" s="7"/>
-    </row>
-    <row r="54" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
-      <c r="AQ54" s="4"/>
-    </row>
-    <row r="55" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="2"/>
-      <c r="AI55" s="2"/>
-      <c r="AJ55" s="2"/>
-      <c r="AK55" s="2"/>
-      <c r="AL55" s="2"/>
-      <c r="AM55" s="2"/>
-      <c r="AN55" s="2"/>
-      <c r="AO55" s="2"/>
-      <c r="AP55" s="2"/>
-      <c r="AQ55" s="1"/>
-    </row>
-    <row r="56" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B56" s="9" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="8"/>
+      <c r="AQ52" s="7"/>
+    </row>
+    <row r="53" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="4"/>
+    </row>
+    <row r="54" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="1"/>
+    </row>
+    <row r="55" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
-      <c r="AG56" s="8"/>
-      <c r="AH56" s="8"/>
-      <c r="AI56" s="8"/>
-      <c r="AJ56" s="8"/>
-      <c r="AK56" s="8"/>
-      <c r="AL56" s="8"/>
-      <c r="AM56" s="8"/>
-      <c r="AN56" s="8"/>
-      <c r="AO56" s="8"/>
-      <c r="AP56" s="8"/>
-      <c r="AQ56" s="7"/>
-    </row>
-    <row r="57" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
-      <c r="AM57" s="5"/>
-      <c r="AN57" s="5"/>
-      <c r="AO57" s="5"/>
-      <c r="AP57" s="5"/>
-      <c r="AQ57" s="4"/>
-    </row>
-    <row r="58" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="2"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58" s="2"/>
-      <c r="AN58" s="2"/>
-      <c r="AO58" s="2"/>
-      <c r="AP58" s="2"/>
-      <c r="AQ58" s="1"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="8"/>
+      <c r="AO55" s="8"/>
+      <c r="AP55" s="8"/>
+      <c r="AQ55" s="7"/>
+    </row>
+    <row r="56" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="4"/>
+    </row>
+    <row r="57" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+  <mergeCells count="31">
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -3476,11 +3414,15 @@
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="A5:AR5"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
